--- a/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(E)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(E).xlsx
+++ b/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(E)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(E).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(E)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(E)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ech
-Echinocactus - fam. Cactacées (Cactus)
+          <t>Ech</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinocactus - fam. Cactacées (Cactus)
 Echinocactus grusonii
 Echinocactus horizonthalonius
 Echinocactus parryi
@@ -649,7 +666,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(E)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -669,8 +686,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Epi
-Epiphyllum - fam. Cactacées (Cactus)
+          <t>Epi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epiphyllum - fam. Cactacées (Cactus)
 Epiphyllum anguliger
 Epiphyllum cartagense
 Epiphyllum crenatum
@@ -692,7 +714,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(E)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -712,15 +734,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eri
- Eriosyce - fam. Cactacées (Cactus)
+          <t>Eri</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eriosyce - fam. Cactacées (Cactus)
 Eriosyce rodentiophila
 Eriosyce sandillon
-Eriosyce subgibbosa
-Ery
-Erythroxylum - Érythroxylacées
-Erythroxylum coca - Coca
-</t>
+Eriosyce subgibbosa</t>
         </is>
       </c>
     </row>
@@ -730,7 +753,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(E)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -745,13 +768,56 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Er</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ery</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythroxylum - Érythroxylacées
+Erythroxylum coca - Coca
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Es</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Esc
-Escobaria - fam. Cactacées (Cactus)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Esc</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Escobaria - fam. Cactacées (Cactus)
 Escobaria aguirreana
 Escobaria chihuahuensis
 Escobaria cubensis
@@ -771,9 +837,43 @@
 Escobaria vivipara
 Escobaria zilziana
 Escontria - fam. Cactacées (Cactus)
-Escontria chiotilla
-Esp
-Espostoa - fam. Cactacées (Cactus)
+Escontria chiotilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Es</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Esp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espostoa - fam. Cactacées (Cactus)
 Espostoa blossfeldiorum
 Espostoa guentheri
 Espostoa lanata
@@ -786,34 +886,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(E)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(E)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Eu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eul
-Eulychnia - fam. Cactacées (Cactus)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Eul</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eulychnia - fam. Cactacées (Cactus)
 Eulychnia acida
 Eulychnia breviflora
 Eulychnia castanea
